--- a/StructureDefinition-profile-ValueSet.xlsx
+++ b/StructureDefinition-profile-ValueSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.9411804-06:00</t>
+    <t>2026-02-20T11:59:20.9784626-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ValueSet|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/ValueSet</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -440,36 +440,76 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>ValueSet.extension:versionAlgorithm</t>
-  </si>
-  <si>
-    <t>versionAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.versionAlgorithm|0.0.1-snapshot-3}
+    <t>ValueSet.extension:scope</t>
+  </si>
+  <si>
+    <t>scope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.scope}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for ValueSet.versionAlgorithm[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to compare versions to determine which ValueSet is more current.</t>
-  </si>
-  <si>
-    <t>Element `ValueSet.versionAlgorithm[x]` has a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
+    <t>Cross-version extension for ValueSet.scope from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Description of the semantic space the Value Set Expansion is intended to cover and should further clarify the text in ValueSet.description.</t>
+  </si>
+  <si>
+    <t>Element `ValueSet.scope` has a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
+    <t>ValueSet.extension:approvalDate</t>
+  </si>
+  <si>
+    <t>approvalDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-approvalDate}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ValueSet.approvalDate from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The date on which the artifact content was approved by the publisher. Approval happens once when the content is officially approved for usage.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ValueSet.approvalDate`: `http://hl7.org/fhir/StructureDefinition/artifact-approvalDate`.
+Element `ValueSet.approvalDate` has a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
+  </si>
+  <si>
+    <t>ValueSet.extension:author</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-author}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ValueSet.author from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An individual or organization primarily involved in the creation and maintenance of the artifact.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ValueSet.author`: `http://hl7.org/fhir/StructureDefinition/artifact-author`.
+Element `ValueSet.author` has a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
+  </si>
+  <si>
     <t>ValueSet.extension:copyrightLabel</t>
   </si>
   <si>
     <t>copyrightLabel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.copyrightLabel|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {artifact-copyrightLabel}
 </t>
   </si>
   <si>
@@ -479,26 +519,68 @@
     <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
   </si>
   <si>
-    <t>Element `ValueSet.copyrightLabel` has a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
-  </si>
-  <si>
-    <t>ValueSet.extension:approvalDate</t>
-  </si>
-  <si>
-    <t>approvalDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.approvalDate|0.0.1-snapshot-3}
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ValueSet.copyrightLabel`: `http://hl7.org/fhir/StructureDefinition/artifact-copyrightLabel`.
+Element `ValueSet.copyrightLabel` has a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
+  </si>
+  <si>
+    <t>ValueSet.extension:editor</t>
+  </si>
+  <si>
+    <t>editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-editor}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for ValueSet.approvalDate from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The date on which the resource content was approved by the publisher. Approval happens once when the content is officially approved for usage.</t>
-  </si>
-  <si>
-    <t>Element `ValueSet.approvalDate` has a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
+    <t>Cross-version extension for ValueSet.editor from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An individual or organization primarily responsible for internal coherence of the artifact.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ValueSet.editor`: `http://hl7.org/fhir/StructureDefinition/artifact-editor`.
+Element `ValueSet.editor` has a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
+  </si>
+  <si>
+    <t>ValueSet.extension:effectivePeriod</t>
+  </si>
+  <si>
+    <t>effectivePeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-effectivePeriod}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ValueSet.effectivePeriod from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The period during which the artifact content was or is planned to be in active use.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ValueSet.effectivePeriod`: `http://hl7.org/fhir/StructureDefinition/artifact-effectivePeriod`.
+Element `ValueSet.effectivePeriod` has a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
+  </si>
+  <si>
+    <t>ValueSet.extension:endorser</t>
+  </si>
+  <si>
+    <t>endorser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-endorser}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ValueSet.endorser from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An individual or organization responsible for officially endorsing the artifact for use in some setting.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ValueSet.endorser`: `http://hl7.org/fhir/StructureDefinition/artifact-endorser`.
+Element `ValueSet.endorser` has a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
   </si>
   <si>
     <t>ValueSet.extension:lastReviewDate</t>
@@ -507,7 +589,7 @@
     <t>lastReviewDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.lastReviewDate|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {artifact-lastReviewDate}
 </t>
   </si>
   <si>
@@ -517,26 +599,48 @@
     <t>The date on which the resource content was last reviewed. Review happens periodically after approval but does not change the original approval date.</t>
   </si>
   <si>
-    <t>Element `ValueSet.lastReviewDate` has a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
-  </si>
-  <si>
-    <t>ValueSet.extension:effectivePeriod</t>
-  </si>
-  <si>
-    <t>effectivePeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.effectivePeriod|0.0.1-snapshot-3}
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ValueSet.lastReviewDate`: `http://hl7.org/fhir/StructureDefinition/artifact-lastReviewDate`.
+Element `ValueSet.lastReviewDate` has a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
+  </si>
+  <si>
+    <t>ValueSet.extension:relatedArtifact</t>
+  </si>
+  <si>
+    <t>relatedArtifact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-relatedArtifact}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for ValueSet.effectivePeriod from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The period during which the ValueSet content was or is planned to be in active use.</t>
-  </si>
-  <si>
-    <t>Element `ValueSet.effectivePeriod` has a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
+    <t>Cross-version extension for ValueSet.relatedArtifact from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Related artifacts such as additional documentation, justification, dependencies, bibliographic references, and predecessor and successor artifacts.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ValueSet.relatedArtifact`: `http://hl7.org/fhir/StructureDefinition/artifact-relatedArtifact`.
+Element `ValueSet.relatedArtifact` has a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
+  </si>
+  <si>
+    <t>ValueSet.extension:reviewer</t>
+  </si>
+  <si>
+    <t>reviewer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-reviewer}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ValueSet.reviewer from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An individual or organization primarily responsible for review of some aspect of the artifact.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ValueSet.reviewer`: `http://hl7.org/fhir/StructureDefinition/artifact-reviewer`.
+Element `ValueSet.reviewer` has a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
   </si>
   <si>
     <t>ValueSet.extension:topic</t>
@@ -545,132 +649,38 @@
     <t>topic</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.topic|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {artifact-topic}
 </t>
   </si>
   <si>
     <t>Cross-version extension for ValueSet.topic from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Descriptions related to the content of the ValueSet. Topics provide a high-level categorization as well as keywords for the ValueSet that can be useful for filtering and searching.</t>
-  </si>
-  <si>
-    <t>Element `ValueSet.topic` has a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
-  </si>
-  <si>
-    <t>ValueSet.extension:author</t>
-  </si>
-  <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.author|0.0.1-snapshot-3}
+    <t>Descriptive topics related to the content of the artifact. Topics provide a high-level categorization of the artifact that can be useful for filtering and searching.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ValueSet.topic`: `http://hl7.org/fhir/StructureDefinition/artifact-topic`.
+Element `ValueSet.topic` has a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
+  </si>
+  <si>
+    <t>ValueSet.extension:versionAlgorithm</t>
+  </si>
+  <si>
+    <t>versionAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-versionAlgorithm}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for ValueSet.author from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>An individiual or organization primarily involved in the creation and maintenance of the ValueSet.</t>
-  </si>
-  <si>
-    <t>Note that the source element matches Basic element path ``, but the definitions are not compatible (source: `ContactDetail`:0..* -&gt; basic: `Reference(http://hl7.org/fhir/StructureDefinition/Practitioner,http://hl7.org/fhir/StructureDefinition/PractitionerRole,http://hl7.org/fhir/StructureDefinition/Patient,http://hl7.org/fhir/StructureDefinition/RelatedPerson,http://hl7.org/fhir/StructureDefinition/Organization)`:0..1).
-Element `ValueSet.author` has a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
-  </si>
-  <si>
-    <t>ValueSet.extension:editor</t>
-  </si>
-  <si>
-    <t>editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.editor|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ValueSet.editor from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>An individual or organization primarily responsible for internal coherence of the ValueSet.</t>
-  </si>
-  <si>
-    <t>Element `ValueSet.editor` has a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
-  </si>
-  <si>
-    <t>ValueSet.extension:reviewer</t>
-  </si>
-  <si>
-    <t>reviewer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.reviewer|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ValueSet.reviewer from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>An individual or organization asserted by the publisher to be primarily responsible for review of some aspect of the ValueSet.</t>
-  </si>
-  <si>
-    <t>Element `ValueSet.reviewer` has a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
-  </si>
-  <si>
-    <t>ValueSet.extension:endorser</t>
-  </si>
-  <si>
-    <t>endorser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.endorser|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ValueSet.endorser from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>An individual or organization asserted by the publisher to be responsible for officially endorsing the ValueSet for use in some setting.</t>
-  </si>
-  <si>
-    <t>Element `ValueSet.endorser` has a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
-  </si>
-  <si>
-    <t>ValueSet.extension:relatedArtifact</t>
-  </si>
-  <si>
-    <t>relatedArtifact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.relatedArtifact|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ValueSet.relatedArtifact from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Related artifacts such as additional documentation, justification, dependencies, bibliographic references, and predecessor and successor artifacts.</t>
-  </si>
-  <si>
-    <t>Element `ValueSet.relatedArtifact` has a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
-  </si>
-  <si>
-    <t>ValueSet.extension:scope</t>
-  </si>
-  <si>
-    <t>scope</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.scope|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ValueSet.scope from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Description of the semantic space the Value Set Expansion is intended to cover and should further clarify the text in ValueSet.description.</t>
-  </si>
-  <si>
-    <t>Element `ValueSet.scope` has a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
+    <t>Cross-version extension for ValueSet.versionAlgorithm[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ValueSet.versionAlgorithm[x]`: `http://hl7.org/fhir/StructureDefinition/artifact-versionAlgorithm`.
+Element `ValueSet.versionAlgorithm[x]` has a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
   </si>
   <si>
     <t>ValueSet.modifierExtension</t>
@@ -1087,7 +1097,7 @@
     <t>compose</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.compose|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.compose}
 </t>
   </si>
   <si>
@@ -1439,7 +1449,7 @@
     <t>expansion</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.expansion|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.expansion}
 </t>
   </si>
   <si>
@@ -1992,7 +2002,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="89.51171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="69.41796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3263,7 +3273,7 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>136</v>
@@ -3299,7 +3309,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
@@ -3379,7 +3389,7 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>136</v>
@@ -3495,7 +3505,7 @@
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>136</v>
@@ -3531,7 +3541,7 @@
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
@@ -3611,7 +3621,7 @@
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>136</v>
@@ -3647,7 +3657,7 @@
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>77</v>
@@ -3727,7 +3737,7 @@
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>136</v>
@@ -3843,7 +3853,7 @@
         <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>136</v>
@@ -3879,7 +3889,7 @@
         <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>77</v>
@@ -3959,7 +3969,7 @@
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>136</v>
@@ -4075,7 +4085,7 @@
         <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>136</v>
@@ -4191,7 +4201,7 @@
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>136</v>
@@ -4307,7 +4317,7 @@
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>136</v>
@@ -4423,7 +4433,7 @@
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>136</v>

--- a/StructureDefinition-profile-ValueSet.xlsx
+++ b/StructureDefinition-profile-ValueSet.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3650" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3526" uniqueCount="500">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.9784626-06:00</t>
+    <t>2026-02-21T13:36:54.3857613-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ValueSet</t>
+    <t>http://hl7.org/fhir/StructureDefinition/ValueSet|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -446,7 +446,7 @@
     <t>scope</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.scope}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.scope|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -461,226 +461,6 @@
   <si>
     <t xml:space="preserve">ele-1
 </t>
-  </si>
-  <si>
-    <t>ValueSet.extension:approvalDate</t>
-  </si>
-  <si>
-    <t>approvalDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-approvalDate}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ValueSet.approvalDate from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The date on which the artifact content was approved by the publisher. Approval happens once when the content is officially approved for usage.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ValueSet.approvalDate`: `http://hl7.org/fhir/StructureDefinition/artifact-approvalDate`.
-Element `ValueSet.approvalDate` has a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
-  </si>
-  <si>
-    <t>ValueSet.extension:author</t>
-  </si>
-  <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-author}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ValueSet.author from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>An individual or organization primarily involved in the creation and maintenance of the artifact.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ValueSet.author`: `http://hl7.org/fhir/StructureDefinition/artifact-author`.
-Element `ValueSet.author` has a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
-  </si>
-  <si>
-    <t>ValueSet.extension:copyrightLabel</t>
-  </si>
-  <si>
-    <t>copyrightLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-copyrightLabel}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ValueSet.copyrightLabel from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ValueSet.copyrightLabel`: `http://hl7.org/fhir/StructureDefinition/artifact-copyrightLabel`.
-Element `ValueSet.copyrightLabel` has a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
-  </si>
-  <si>
-    <t>ValueSet.extension:editor</t>
-  </si>
-  <si>
-    <t>editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-editor}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ValueSet.editor from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>An individual or organization primarily responsible for internal coherence of the artifact.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ValueSet.editor`: `http://hl7.org/fhir/StructureDefinition/artifact-editor`.
-Element `ValueSet.editor` has a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
-  </si>
-  <si>
-    <t>ValueSet.extension:effectivePeriod</t>
-  </si>
-  <si>
-    <t>effectivePeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-effectivePeriod}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ValueSet.effectivePeriod from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The period during which the artifact content was or is planned to be in active use.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ValueSet.effectivePeriod`: `http://hl7.org/fhir/StructureDefinition/artifact-effectivePeriod`.
-Element `ValueSet.effectivePeriod` has a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
-  </si>
-  <si>
-    <t>ValueSet.extension:endorser</t>
-  </si>
-  <si>
-    <t>endorser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-endorser}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ValueSet.endorser from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>An individual or organization responsible for officially endorsing the artifact for use in some setting.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ValueSet.endorser`: `http://hl7.org/fhir/StructureDefinition/artifact-endorser`.
-Element `ValueSet.endorser` has a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
-  </si>
-  <si>
-    <t>ValueSet.extension:lastReviewDate</t>
-  </si>
-  <si>
-    <t>lastReviewDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-lastReviewDate}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ValueSet.lastReviewDate from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The date on which the resource content was last reviewed. Review happens periodically after approval but does not change the original approval date.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ValueSet.lastReviewDate`: `http://hl7.org/fhir/StructureDefinition/artifact-lastReviewDate`.
-Element `ValueSet.lastReviewDate` has a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
-  </si>
-  <si>
-    <t>ValueSet.extension:relatedArtifact</t>
-  </si>
-  <si>
-    <t>relatedArtifact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-relatedArtifact}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ValueSet.relatedArtifact from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Related artifacts such as additional documentation, justification, dependencies, bibliographic references, and predecessor and successor artifacts.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ValueSet.relatedArtifact`: `http://hl7.org/fhir/StructureDefinition/artifact-relatedArtifact`.
-Element `ValueSet.relatedArtifact` has a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
-  </si>
-  <si>
-    <t>ValueSet.extension:reviewer</t>
-  </si>
-  <si>
-    <t>reviewer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-reviewer}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ValueSet.reviewer from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>An individual or organization primarily responsible for review of some aspect of the artifact.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ValueSet.reviewer`: `http://hl7.org/fhir/StructureDefinition/artifact-reviewer`.
-Element `ValueSet.reviewer` has a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
-  </si>
-  <si>
-    <t>ValueSet.extension:topic</t>
-  </si>
-  <si>
-    <t>topic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-topic}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ValueSet.topic from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Descriptive topics related to the content of the artifact. Topics provide a high-level categorization of the artifact that can be useful for filtering and searching.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ValueSet.topic`: `http://hl7.org/fhir/StructureDefinition/artifact-topic`.
-Element `ValueSet.topic` has a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
-  </si>
-  <si>
-    <t>ValueSet.extension:versionAlgorithm</t>
-  </si>
-  <si>
-    <t>versionAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-versionAlgorithm}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ValueSet.versionAlgorithm[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ValueSet.versionAlgorithm[x]`: `http://hl7.org/fhir/StructureDefinition/artifact-versionAlgorithm`.
-Element `ValueSet.versionAlgorithm[x]` has a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
   </si>
   <si>
     <t>ValueSet.modifierExtension</t>
@@ -1091,20 +871,23 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>ValueSet.compose.extension:compose</t>
-  </si>
-  <si>
-    <t>compose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.compose}
+    <t>ValueSet.compose.extension:property</t>
+  </si>
+  <si>
+    <t>property</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.compose.property|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for ValueSet.compose from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `ValueSet.compose` has is mapped to FHIR R4 element `ValueSet.compose`, but has no comparisons.</t>
+    <t>Cross-version extension for ValueSet.compose.property from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A property to return in the expansion, if the client doesn't ask for any particular properties. May be either a code from the code system definition (convenient) or a the formal URI that refers to the property. The special value '*' means all properties known to the server.</t>
+  </si>
+  <si>
+    <t>Element `ValueSet.compose.property` has a context of ValueSet.compose based on following the parent source element upwards and mapping to `ValueSet`.</t>
   </si>
   <si>
     <t>ValueSet.compose.modifierExtension</t>
@@ -1178,10 +961,24 @@
     <t>ValueSet.compose.include.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>ValueSet.compose.include.extension:copyright</t>
+  </si>
+  <si>
+    <t>copyright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.compose.include.copyright|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ValueSet.compose.include.copyright from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A copyright statement for the specific code system asserted by the containing ValueSet.compose.include element's system value (if the associated ValueSet.compose.include.version element is not present); or the code system and version combination (if the associated ValueSet.compose.include.version element is present).</t>
+  </si>
+  <si>
+    <t>Element `ValueSet.compose.include.copyright` has a context of ValueSet.compose.include based on following the parent source element upwards and mapping to `ValueSet`.
+Note available implied context: `ValueSet.compose.exclude` because `ValueSet.compose.exclude` is defined via a content reference to `ValueSet.compose.include`.</t>
   </si>
   <si>
     <t>ValueSet.compose.include.modifierExtension</t>
@@ -1237,6 +1034,12 @@
     <t>ValueSet.compose.include.concept.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>ValueSet.compose.include.concept.modifierExtension</t>
   </si>
   <si>
@@ -1280,6 +1083,26 @@
   </si>
   <si>
     <t>ValueSet.compose.include.concept.designation.extension</t>
+  </si>
+  <si>
+    <t>ValueSet.compose.include.concept.designation.extension:additionalUse</t>
+  </si>
+  <si>
+    <t>additionalUse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.compose.include.concept.designation.additionalUse|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ValueSet.compose.include.concept.designation.additionalUse from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Additional codes that detail how this designation would be used, if there is more than one use.</t>
+  </si>
+  <si>
+    <t>Element `ValueSet.compose.include.concept.designation.additionalUse` has a context of ValueSet.compose.include.concept.designation based on following the parent source element upwards and mapping to `ValueSet`.
+Note available implied context: `ValueSet.expansion.contains.designation` because `ValueSet.expansion.contains.designation` is defined via a content reference to `ValueSet.compose.include.concept.designation`.</t>
   </si>
   <si>
     <t>ValueSet.compose.include.concept.designation.modifierExtension</t>
@@ -1376,6 +1199,44 @@
     <t>http://hl7.org/fhir/ValueSet/filter-operator|4.0.1</t>
   </si>
   <si>
+    <t>ValueSet.compose.include.filter.op.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
+  </si>
+  <si>
+    <t>ValueSet.compose.include.filter.op.extension</t>
+  </si>
+  <si>
+    <t>ValueSet.compose.include.filter.op.extension:op</t>
+  </si>
+  <si>
+    <t>op</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.compose.include.filter.op|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ValueSet.compose.include.filter.op from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `ValueSet.compose.include.filter.op` is mapped to FHIR R4 element `ValueSet.compose.include.filter.op` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
+Note available implied context: `ValueSet.compose.exclude.filter.op` because `ValueSet.compose.exclude` is defined via a content reference to `ValueSet.compose.include`.</t>
+  </si>
+  <si>
+    <t>ValueSet.compose.include.filter.op.value</t>
+  </si>
+  <si>
+    <t>Primitive value for code</t>
+  </si>
+  <si>
+    <t>string.value</t>
+  </si>
+  <si>
     <t>ValueSet.compose.include.filter.value</t>
   </si>
   <si>
@@ -1443,20 +1304,39 @@
     <t>ValueSet.expansion.extension</t>
   </si>
   <si>
-    <t>ValueSet.expansion.extension:expansion</t>
-  </si>
-  <si>
-    <t>expansion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.expansion}
+    <t>ValueSet.expansion.extension:next</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.expansion.next|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for ValueSet.expansion from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `ValueSet.expansion` has is mapped to FHIR R4 element `ValueSet.expansion`, but has no comparisons.</t>
+    <t>Cross-version extension for ValueSet.expansion.next from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>As per paging Search results, the next URLs are opaque to the client, have no dictated structure, and only the server understands them.</t>
+  </si>
+  <si>
+    <t>Element `ValueSet.expansion.next` has a context of ValueSet.expansion based on following the parent source element upwards and mapping to `ValueSet`.</t>
+  </si>
+  <si>
+    <t>ValueSet.expansion.extension:property</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.expansion.property|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ValueSet.expansion.property from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A property defines an additional slot through which additional information can be provided about a concept.</t>
+  </si>
+  <si>
+    <t>Element `ValueSet.expansion.property` has a context of ValueSet.expansion based on following the parent source element upwards and mapping to `ValueSet`.</t>
   </si>
   <si>
     <t>ValueSet.expansion.modifierExtension</t>
@@ -1580,6 +1460,23 @@
   </si>
   <si>
     <t>ValueSet.expansion.contains.extension</t>
+  </si>
+  <si>
+    <t>ValueSet.expansion.contains.extension:property</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.expansion.contains.property|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ValueSet.expansion.contains.property from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A property value for this concept.</t>
+  </si>
+  <si>
+    <t>Element `ValueSet.expansion.contains.property` has a context of ValueSet.expansion.contains based on following the parent source element upwards and mapping to `ValueSet`.
+Note available implied context: `ValueSet.expansion.contains.contains` because `ValueSet.expansion.contains.contains` is defined via a content reference to `ValueSet.expansion.contains`.</t>
   </si>
   <si>
     <t>ValueSet.expansion.contains.modifierExtension</t>
@@ -1983,7 +1880,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN100"/>
+  <dimension ref="A1:AN97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1992,9 +1889,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.015625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.8125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="54.015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.76953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.0078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -2002,7 +1899,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="69.41796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="117.625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3180,43 +3077,43 @@
         <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="N11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
       </c>
@@ -3264,7 +3161,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -3279,7 +3176,7 @@
         <v>136</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>77</v>
@@ -3293,14 +3190,12 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C12" t="s" s="2">
         <v>151</v>
       </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3309,7 +3204,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
@@ -3318,21 +3213,23 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3380,28 +3277,28 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>77</v>
@@ -3409,14 +3306,12 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3425,7 +3320,7 @@
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>77</v>
@@ -3434,21 +3329,23 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O13" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3496,7 +3393,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3508,31 +3405,29 @@
         <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3541,7 +3436,7 @@
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
@@ -3550,19 +3445,19 @@
         <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3612,28 +3507,28 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>77</v>
@@ -3641,14 +3536,12 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3666,21 +3559,23 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O15" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3728,19 +3623,19 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>77</v>
@@ -3757,14 +3652,12 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3773,7 +3666,7 @@
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>77</v>
@@ -3782,19 +3675,19 @@
         <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3844,25 +3737,25 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -3873,20 +3766,18 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>86</v>
@@ -3895,22 +3786,22 @@
         <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>182</v>
+        <v>106</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3936,13 +3827,13 @@
         <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>77</v>
@@ -3960,28 +3851,28 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3989,14 +3880,12 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
         <v>77</v>
       </c>
@@ -4005,7 +3894,7 @@
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
@@ -4014,21 +3903,23 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
       </c>
@@ -4076,28 +3967,28 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>135</v>
+        <v>193</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -4105,23 +3996,21 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>77</v>
@@ -4130,19 +4019,19 @@
         <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4192,28 +4081,28 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>135</v>
+        <v>201</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>77</v>
+        <v>208</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -4221,14 +4110,12 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
         <v>77</v>
       </c>
@@ -4237,7 +4124,7 @@
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>77</v>
@@ -4246,21 +4133,23 @@
         <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
       </c>
@@ -4308,28 +4197,28 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>135</v>
+        <v>209</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -4337,14 +4226,12 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4353,7 +4240,7 @@
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
@@ -4362,19 +4249,19 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4424,7 +4311,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>135</v>
+        <v>216</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4436,13 +4323,13 @@
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -4453,46 +4340,44 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>130</v>
+        <v>224</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4540,25 +4425,25 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>77</v>
+        <v>228</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4569,10 +4454,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4583,7 +4468,7 @@
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
@@ -4595,19 +4480,19 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -4656,13 +4541,13 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
@@ -4671,13 +4556,13 @@
         <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>223</v>
+        <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4685,10 +4570,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4711,20 +4596,18 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4748,13 +4631,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -4772,7 +4655,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4790,21 +4673,21 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>223</v>
+        <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4827,16 +4710,16 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4886,7 +4769,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4904,10 +4787,10 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4915,10 +4798,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4938,23 +4821,21 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -5002,7 +4883,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -5011,7 +4892,7 @@
         <v>86</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>98</v>
@@ -5020,25 +4901,25 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>77</v>
+        <v>256</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5054,21 +4935,23 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
       </c>
@@ -5116,7 +4999,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5134,29 +5017,29 @@
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>86</v>
@@ -5165,23 +5048,21 @@
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>106</v>
+        <v>264</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -5206,13 +5087,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>254</v>
+        <v>77</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>256</v>
+        <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -5230,10 +5111,10 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>86</v>
@@ -5248,10 +5129,10 @@
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>257</v>
+        <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>258</v>
+        <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5259,10 +5140,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5282,23 +5163,19 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>260</v>
+        <v>167</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
       </c>
@@ -5346,7 +5223,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5358,16 +5235,16 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>77</v>
+        <v>271</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>265</v>
+        <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5375,21 +5252,21 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>268</v>
+        <v>77</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -5398,20 +5275,18 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>269</v>
+        <v>130</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>270</v>
+        <v>131</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5448,40 +5323,38 @@
         <v>77</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC30" s="2"/>
       <c r="AD30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>273</v>
+        <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5489,12 +5362,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="C31" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="B31" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5503,7 +5378,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -5512,23 +5387,21 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>233</v>
+        <v>276</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O31" t="s" s="2">
         <v>279</v>
       </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5576,28 +5449,28 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>281</v>
+        <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5605,14 +5478,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5625,24 +5498,26 @@
         <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>285</v>
-      </c>
       <c r="N32" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5690,7 +5565,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5702,13 +5577,13 @@
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>287</v>
+        <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5719,14 +5594,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>289</v>
+        <v>77</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5742,19 +5617,19 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5804,7 +5679,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5819,13 +5694,13 @@
         <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>77</v>
+        <v>290</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5833,10 +5708,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5847,7 +5722,7 @@
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -5859,20 +5734,18 @@
         <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>296</v>
+        <v>194</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5920,13 +5793,13 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
@@ -5938,7 +5811,7 @@
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5949,10 +5822,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5960,7 +5833,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>79</v>
@@ -5975,16 +5848,16 @@
         <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6010,13 +5883,13 @@
         <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>307</v>
+        <v>77</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>308</v>
+        <v>77</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>309</v>
+        <v>77</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>77</v>
@@ -6034,10 +5907,10 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -6046,13 +5919,13 @@
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>98</v>
+        <v>299</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -6063,10 +5936,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6086,20 +5959,18 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>260</v>
+        <v>167</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>312</v>
+        <v>268</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -6148,7 +6019,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>311</v>
+        <v>270</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6160,10 +6031,10 @@
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>77</v>
+        <v>271</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -6177,10 +6048,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6191,7 +6062,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
@@ -6203,17 +6074,15 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>290</v>
+        <v>130</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>316</v>
+        <v>131</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -6250,55 +6119,55 @@
         <v>77</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC37" s="2"/>
       <c r="AD37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>315</v>
+        <v>273</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>319</v>
+        <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>320</v>
+        <v>77</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="D38" t="s" s="2">
-        <v>322</v>
+        <v>77</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6317,20 +6186,18 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
       </c>
@@ -6378,71 +6245,75 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>321</v>
+        <v>273</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>327</v>
+        <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>329</v>
+        <v>281</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>330</v>
+        <v>130</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>77</v>
       </c>
@@ -6490,22 +6361,22 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>328</v>
+        <v>284</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6519,10 +6390,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6542,18 +6413,20 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>233</v>
+        <v>100</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6602,7 +6475,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6611,13 +6484,13 @@
         <v>86</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>77</v>
+        <v>313</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>337</v>
+        <v>84</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6631,10 +6504,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6645,7 +6518,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
@@ -6654,18 +6527,20 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>131</v>
+        <v>315</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6702,32 +6577,34 @@
         <v>77</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC41" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6741,14 +6618,12 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6757,7 +6632,7 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6769,16 +6644,16 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>342</v>
+        <v>264</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6828,7 +6703,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6837,13 +6712,13 @@
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>143</v>
+        <v>322</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6857,46 +6732,42 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>346</v>
+        <v>77</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>347</v>
+        <v>268</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6944,22 +6815,22 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>349</v>
+        <v>270</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>84</v>
+        <v>271</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6973,21 +6844,21 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
@@ -6996,19 +6867,19 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>351</v>
+        <v>130</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>354</v>
+        <v>148</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7058,28 +6929,28 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>350</v>
+        <v>273</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>77</v>
+        <v>271</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>355</v>
+        <v>77</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -7087,44 +6958,46 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>357</v>
+        <v>282</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>358</v>
+        <v>283</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
       </c>
@@ -7172,22 +7045,22 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>356</v>
+        <v>284</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -7201,10 +7074,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7215,7 +7088,7 @@
         <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
@@ -7224,19 +7097,19 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="L46" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>362</v>
-      </c>
       <c r="N46" t="s" s="2">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7286,19 +7159,19 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>364</v>
+        <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>84</v>
@@ -7315,10 +7188,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7341,15 +7214,17 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -7398,7 +7273,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7410,10 +7285,10 @@
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>337</v>
+        <v>84</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7427,14 +7302,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>366</v>
+        <v>336</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>366</v>
+        <v>336</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7453,16 +7328,16 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>130</v>
+        <v>264</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>368</v>
+        <v>338</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>214</v>
+        <v>339</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7512,7 +7387,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7524,10 +7399,10 @@
         <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7541,46 +7416,42 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>346</v>
+        <v>77</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>347</v>
+        <v>268</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7628,22 +7499,22 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>349</v>
+        <v>270</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>84</v>
+        <v>271</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7657,10 +7528,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7671,7 +7542,7 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -7680,20 +7551,18 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>371</v>
+        <v>131</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7730,34 +7599,32 @@
         <v>77</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC50" s="2"/>
       <c r="AD50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>370</v>
+        <v>273</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>374</v>
+        <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7771,12 +7638,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>375</v>
+        <v>342</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="C51" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="D51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7785,7 +7654,7 @@
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
@@ -7794,19 +7663,19 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>233</v>
+        <v>344</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>376</v>
+        <v>345</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>377</v>
+        <v>346</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>378</v>
+        <v>347</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7856,22 +7725,22 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>375</v>
+        <v>273</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7885,14 +7754,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>379</v>
+        <v>348</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>379</v>
+        <v>348</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7905,24 +7774,26 @@
         <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>330</v>
+        <v>130</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>380</v>
+        <v>282</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>381</v>
+        <v>283</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="O52" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7970,7 +7841,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>379</v>
+        <v>284</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7979,10 +7850,10 @@
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>383</v>
+        <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>84</v>
@@ -7999,10 +7870,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>384</v>
+        <v>349</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>384</v>
+        <v>349</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8025,15 +7896,17 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>233</v>
+        <v>106</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -8058,13 +7931,13 @@
         <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>77</v>
@@ -8082,7 +7955,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8094,10 +7967,10 @@
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -8111,21 +7984,21 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>77</v>
@@ -8137,16 +8010,16 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>130</v>
+        <v>354</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>214</v>
+        <v>357</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8172,13 +8045,13 @@
         <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>77</v>
+        <v>358</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>77</v>
+        <v>359</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>77</v>
@@ -8196,22 +8069,22 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
@@ -8225,46 +8098,42 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>386</v>
+        <v>360</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>386</v>
+        <v>360</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>346</v>
+        <v>77</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8312,22 +8181,22 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8341,10 +8210,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8352,10 +8221,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>77</v>
@@ -8364,19 +8233,19 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>106</v>
+        <v>264</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8426,16 +8295,16 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>77</v>
+        <v>322</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>98</v>
@@ -8455,10 +8324,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8481,17 +8350,15 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>392</v>
+        <v>268</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>77</v>
@@ -8540,7 +8407,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>391</v>
+        <v>270</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8552,10 +8419,10 @@
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>84</v>
+        <v>271</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8569,14 +8436,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8595,16 +8462,16 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>330</v>
+        <v>130</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>396</v>
+        <v>325</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>397</v>
+        <v>326</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>398</v>
+        <v>148</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8654,7 +8521,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>395</v>
+        <v>273</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8666,10 +8533,10 @@
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>77</v>
+        <v>271</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8683,42 +8550,46 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>399</v>
+        <v>369</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>399</v>
+        <v>369</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>233</v>
+        <v>130</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>334</v>
+        <v>282</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8766,22 +8637,22 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>336</v>
+        <v>284</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>337</v>
+        <v>84</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8795,21 +8666,21 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>77</v>
@@ -8818,20 +8689,18 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8880,22 +8749,22 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>339</v>
+        <v>370</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>337</v>
+        <v>84</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -8909,46 +8778,44 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>346</v>
+        <v>77</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8972,13 +8839,13 @@
         <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>77</v>
+        <v>377</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>77</v>
+        <v>378</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>77</v>
@@ -8996,19 +8863,19 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>84</v>
@@ -9025,10 +8892,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9051,17 +8918,15 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>77</v>
@@ -9086,13 +8951,13 @@
         <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>77</v>
@@ -9110,7 +8975,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>402</v>
+        <v>270</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9122,7 +8987,7 @@
         <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>77</v>
@@ -9139,10 +9004,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9150,10 +9015,10 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>77</v>
@@ -9165,17 +9030,15 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>407</v>
+        <v>130</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>408</v>
+        <v>131</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -9200,43 +9063,41 @@
         <v>77</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>307</v>
+        <v>77</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>411</v>
+        <v>77</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>412</v>
+        <v>77</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC63" s="2"/>
       <c r="AD63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>406</v>
+        <v>273</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>77</v>
@@ -9253,12 +9114,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>413</v>
+        <v>383</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="D64" t="s" s="2">
         <v>77</v>
       </c>
@@ -9279,15 +9142,17 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>233</v>
+        <v>385</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>414</v>
+        <v>386</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>77</v>
@@ -9336,19 +9201,19 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>413</v>
+        <v>273</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>77</v>
@@ -9365,10 +9230,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9379,7 +9244,7 @@
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>77</v>
@@ -9388,20 +9253,18 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>330</v>
+        <v>167</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -9450,22 +9313,22 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>416</v>
+        <v>390</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>383</v>
+        <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -9479,10 +9342,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9490,7 +9353,7 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>86</v>
@@ -9502,18 +9365,20 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>334</v>
+        <v>392</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>77</v>
@@ -9562,10 +9427,10 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>336</v>
+        <v>391</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>86</v>
@@ -9574,10 +9439,10 @@
         <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>337</v>
+        <v>84</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9591,14 +9456,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>421</v>
+        <v>395</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>421</v>
+        <v>395</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9614,19 +9479,19 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>130</v>
+        <v>396</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>367</v>
+        <v>397</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>368</v>
+        <v>398</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>214</v>
+        <v>399</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9676,7 +9541,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>339</v>
+        <v>395</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9685,13 +9550,13 @@
         <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>77</v>
+        <v>400</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>337</v>
+        <v>84</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9705,14 +9570,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>346</v>
+        <v>77</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9725,26 +9590,24 @@
         <v>77</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>347</v>
+        <v>402</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>348</v>
+        <v>403</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9792,7 +9655,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>349</v>
+        <v>401</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9801,10 +9664,10 @@
         <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>77</v>
+        <v>405</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>84</v>
@@ -9821,10 +9684,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9832,7 +9695,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>86</v>
@@ -9844,18 +9707,20 @@
         <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>106</v>
+        <v>264</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>77</v>
@@ -9904,10 +9769,10 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>86</v>
@@ -9919,7 +9784,7 @@
         <v>98</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -9933,10 +9798,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9944,7 +9809,7 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>86</v>
@@ -9956,20 +9821,18 @@
         <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>427</v>
+        <v>268</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -9994,13 +9857,13 @@
         <v>77</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>254</v>
+        <v>77</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>430</v>
+        <v>77</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>431</v>
+        <v>77</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>77</v>
@@ -10018,10 +9881,10 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>426</v>
+        <v>270</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>86</v>
@@ -10030,10 +9893,10 @@
         <v>77</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>84</v>
+        <v>271</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -10047,10 +9910,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10058,10 +9921,10 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>77</v>
@@ -10070,20 +9933,18 @@
         <v>77</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>233</v>
+        <v>130</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>433</v>
+        <v>131</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>77</v>
@@ -10120,34 +9981,32 @@
         <v>77</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC71" s="2"/>
       <c r="AD71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>432</v>
+        <v>273</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
@@ -10161,12 +10020,14 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="D72" t="s" s="2">
         <v>77</v>
       </c>
@@ -10175,7 +10036,7 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>77</v>
@@ -10184,19 +10045,19 @@
         <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>437</v>
+        <v>414</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>438</v>
+        <v>415</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>439</v>
+        <v>416</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>440</v>
+        <v>417</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10246,7 +10107,7 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>436</v>
+        <v>273</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10255,13 +10116,13 @@
         <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>441</v>
+        <v>143</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -10275,12 +10136,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="C73" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="D73" t="s" s="2">
         <v>77</v>
       </c>
@@ -10301,16 +10164,16 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>80</v>
+        <v>419</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10360,7 +10223,7 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>442</v>
+        <v>273</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10369,13 +10232,13 @@
         <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>446</v>
+        <v>143</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -10389,44 +10252,46 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>330</v>
+        <v>130</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>448</v>
+        <v>282</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>449</v>
+        <v>283</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="O74" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>77</v>
       </c>
@@ -10474,22 +10339,22 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>447</v>
+        <v>284</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
@@ -10503,10 +10368,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>451</v>
+        <v>424</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>451</v>
+        <v>424</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10529,15 +10394,17 @@
         <v>77</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>233</v>
+        <v>100</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>334</v>
+        <v>425</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -10586,7 +10453,7 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>336</v>
+        <v>424</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10598,10 +10465,10 @@
         <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -10615,10 +10482,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10626,10 +10493,10 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>77</v>
@@ -10641,15 +10508,17 @@
         <v>77</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>131</v>
+        <v>429</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>77</v>
@@ -10686,29 +10555,31 @@
         <v>77</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC76" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>339</v>
+        <v>428</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>77</v>
@@ -10725,14 +10596,12 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>454</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
         <v>77</v>
       </c>
@@ -10753,16 +10622,16 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10812,19 +10681,19 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>339</v>
+        <v>432</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>77</v>
@@ -10841,50 +10710,50 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>458</v>
+        <v>437</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>458</v>
+        <v>437</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>346</v>
+        <v>77</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>130</v>
+        <v>433</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>347</v>
+        <v>438</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>348</v>
+        <v>439</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="R78" t="s" s="2">
         <v>77</v>
       </c>
@@ -10928,22 +10797,22 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>349</v>
+        <v>437</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
@@ -10957,10 +10826,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10971,7 +10840,7 @@
         <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>77</v>
@@ -10983,16 +10852,16 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>100</v>
+        <v>264</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11042,13 +10911,13 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>77</v>
@@ -11071,10 +10940,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11082,7 +10951,7 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>86</v>
@@ -11097,17 +10966,15 @@
         <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L80" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>466</v>
-      </c>
+      <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -11156,10 +11023,10 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>463</v>
+        <v>270</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>86</v>
@@ -11168,10 +11035,10 @@
         <v>77</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>77</v>
+        <v>271</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11185,21 +11052,21 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>77</v>
@@ -11211,16 +11078,16 @@
         <v>77</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>468</v>
+        <v>130</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>469</v>
+        <v>325</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>470</v>
+        <v>326</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>471</v>
+        <v>148</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11270,22 +11137,22 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>467</v>
+        <v>273</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>77</v>
+        <v>271</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
@@ -11299,50 +11166,50 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>468</v>
+        <v>130</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>473</v>
+        <v>282</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>474</v>
+        <v>283</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="O82" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q82" t="s" s="2">
-        <v>476</v>
-      </c>
+      <c r="Q82" s="2"/>
       <c r="R82" t="s" s="2">
         <v>77</v>
       </c>
@@ -11386,22 +11253,22 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>472</v>
+        <v>284</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
@@ -11415,10 +11282,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11426,10 +11293,10 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>77</v>
@@ -11441,16 +11308,16 @@
         <v>77</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>330</v>
+        <v>167</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>478</v>
+        <v>450</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>479</v>
+        <v>451</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>480</v>
+        <v>452</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11500,13 +11367,13 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>77</v>
@@ -11529,10 +11396,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>481</v>
+        <v>453</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>481</v>
+        <v>453</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11555,13 +11422,13 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>233</v>
+        <v>454</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>334</v>
+        <v>455</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>335</v>
+        <v>456</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11612,7 +11479,7 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>336</v>
+        <v>453</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -11624,10 +11491,10 @@
         <v>77</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
@@ -11641,14 +11508,14 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>482</v>
+        <v>457</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>482</v>
+        <v>457</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -11667,17 +11534,15 @@
         <v>77</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>130</v>
+        <v>264</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>367</v>
+        <v>458</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -11726,7 +11591,7 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>339</v>
+        <v>457</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -11738,10 +11603,10 @@
         <v>77</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>136</v>
+        <v>460</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
@@ -11755,46 +11620,42 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>346</v>
+        <v>77</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>347</v>
+        <v>268</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>77</v>
       </c>
@@ -11842,22 +11703,22 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>349</v>
+        <v>270</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>84</v>
+        <v>271</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
@@ -11871,10 +11732,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11882,10 +11743,10 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>77</v>
@@ -11897,17 +11758,15 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>233</v>
+        <v>130</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>485</v>
+        <v>131</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>77</v>
@@ -11944,31 +11803,29 @@
         <v>77</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC87" s="2"/>
       <c r="AD87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>484</v>
+        <v>273</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>77</v>
@@ -11985,12 +11842,14 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>488</v>
+        <v>463</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="C88" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="D88" t="s" s="2">
         <v>77</v>
       </c>
@@ -11999,7 +11858,7 @@
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>77</v>
@@ -12011,15 +11870,17 @@
         <v>77</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>490</v>
+        <v>465</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -12068,19 +11929,19 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>488</v>
+        <v>273</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>77</v>
@@ -12097,14 +11958,14 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -12117,22 +11978,26 @@
         <v>77</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>330</v>
+        <v>130</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>493</v>
+        <v>282</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>77</v>
       </c>
@@ -12180,7 +12045,7 @@
         <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>492</v>
+        <v>284</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -12192,10 +12057,10 @@
         <v>77</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>495</v>
+        <v>136</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
@@ -12209,10 +12074,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>496</v>
+        <v>469</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>496</v>
+        <v>469</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12235,13 +12100,13 @@
         <v>77</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>233</v>
+        <v>100</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>334</v>
+        <v>470</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>335</v>
+        <v>471</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12292,7 +12157,7 @@
         <v>77</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>336</v>
+        <v>469</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -12304,10 +12169,10 @@
         <v>77</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
@@ -12321,21 +12186,21 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>77</v>
@@ -12347,22 +12212,24 @@
         <v>77</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>130</v>
+        <v>194</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>367</v>
+        <v>473</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>368</v>
+        <v>474</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>214</v>
+        <v>475</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="R91" t="s" s="2">
         <v>77</v>
       </c>
@@ -12406,22 +12273,22 @@
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>339</v>
+        <v>472</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>77</v>
@@ -12435,46 +12302,44 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>346</v>
+        <v>77</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>130</v>
+        <v>194</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>347</v>
+        <v>478</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>348</v>
+        <v>479</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>77</v>
       </c>
@@ -12522,22 +12387,22 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>349</v>
+        <v>477</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
@@ -12551,10 +12416,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12577,15 +12442,17 @@
         <v>77</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -12634,7 +12501,7 @@
         <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -12663,10 +12530,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>502</v>
+        <v>485</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>502</v>
+        <v>485</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12689,24 +12556,20 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>260</v>
+        <v>106</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>505</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q94" t="s" s="2">
-        <v>506</v>
-      </c>
+      <c r="Q94" s="2"/>
       <c r="R94" t="s" s="2">
         <v>77</v>
       </c>
@@ -12750,7 +12613,7 @@
         <v>77</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>502</v>
+        <v>485</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -12759,7 +12622,7 @@
         <v>86</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>77</v>
+        <v>488</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>98</v>
@@ -12779,10 +12642,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12805,17 +12668,15 @@
         <v>77</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>260</v>
+        <v>167</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>508</v>
+        <v>490</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>510</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>77</v>
@@ -12864,7 +12725,7 @@
         <v>77</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -12873,7 +12734,7 @@
         <v>86</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>77</v>
+        <v>488</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>98</v>
@@ -12893,10 +12754,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -12907,7 +12768,7 @@
         <v>78</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>77</v>
@@ -12919,16 +12780,16 @@
         <v>77</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -12978,13 +12839,13 @@
         <v>77</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>77</v>
@@ -13007,10 +12868,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13021,7 +12882,7 @@
         <v>78</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>77</v>
@@ -13033,15 +12894,17 @@
         <v>77</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>516</v>
+        <v>497</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="N97" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>499</v>
+      </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>77</v>
@@ -13090,16 +12953,16 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>518</v>
+        <v>77</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>98</v>
@@ -13114,346 +12977,6 @@
         <v>77</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E98" s="2"/>
-      <c r="F98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
-      <c r="P98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q98" s="2"/>
-      <c r="R98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E99" s="2"/>
-      <c r="F99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="O99" s="2"/>
-      <c r="P99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q99" s="2"/>
-      <c r="R99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E100" s="2"/>
-      <c r="F100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="O100" s="2"/>
-      <c r="P100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q100" s="2"/>
-      <c r="R100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN100" t="s" s="2">
         <v>77</v>
       </c>
     </row>
